--- a/doc/PC与PLC通信协议20170215.xlsx
+++ b/doc/PC与PLC通信协议20170215.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mywork\softproject\hw_yida_rollpanel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mywork\softproject\170215yidaRobot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -823,10 +823,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>缓存状态（1走；2存；3取存；4走取；5取走；6存取）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存位置（0-20，0表示不存）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -854,6 +850,10 @@
   </si>
   <si>
     <t>B区PC与PLC通信OPC变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存状态（1走；2存；3取存，同抓子；4走取；5取走；6存取，异抓子）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1733,12 +1733,12 @@
     <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2534,7 +2534,7 @@
         <v>261</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>261</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>261</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>263</v>
@@ -2583,10 +2583,10 @@
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>267</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,10 +2596,10 @@
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>262</v>
@@ -2622,7 +2622,7 @@
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E56" s="37" t="s">
         <v>262</v>
